--- a/supplementalData/Table S5.xlsx
+++ b/supplementalData/Table S5.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/Dropbox/_Manuscripts/16 Species Paper/_ToSubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/projects/GitHub/Drosophila14GenomesProject/supplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E4F7D9-8498-4344-89E3-A46FD6A791B4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S5-AfterRacon" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>Dyak.pass.minimap2.racon.x4.fasta</t>
   </si>
@@ -159,21 +160,6 @@
   </si>
   <si>
     <t>Dmau.pass.minimap2.racon.x1.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x4.fasta</t>
-  </si>
-  <si>
-    <t>Dkik</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x3.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x2.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x1.fasta</t>
   </si>
   <si>
     <t>Deug.pass.minimap2.racon.x4.fasta</t>
@@ -308,7 +294,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -386,13 +372,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -707,14 +693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q330"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,82 +723,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>92</v>
+      <c r="A1" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="L2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="L2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -856,10 +842,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -903,10 +889,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -950,10 +936,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -997,10 +983,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1044,10 +1030,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1091,10 +1077,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -1138,10 +1124,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -1185,10 +1171,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1232,10 +1218,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1279,10 +1265,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -1326,10 +1312,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -1373,10 +1359,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1420,10 +1406,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -1467,10 +1453,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1514,10 +1500,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -1561,10 +1547,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1608,10 +1594,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1655,10 +1641,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -1702,10 +1688,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -1749,10 +1735,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1761,34 +1747,34 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>173380011</v>
+        <v>133964127</v>
       </c>
       <c r="G24" s="2">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="H24" s="2">
-        <v>741165</v>
+        <v>4727420</v>
       </c>
       <c r="I24" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J24" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L24" s="1">
-        <v>82.9</v>
+        <v>91</v>
       </c>
       <c r="M24" s="1">
-        <v>81.599999999999994</v>
+        <v>90.3</v>
       </c>
       <c r="N24" s="1">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="O24" s="1">
-        <v>7.9</v>
+        <v>5.7</v>
       </c>
       <c r="P24" s="1">
-        <v>9.1999999999999993</v>
+        <v>3.3</v>
       </c>
       <c r="Q24" s="1">
         <v>978</v>
@@ -1796,10 +1782,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1808,34 +1794,34 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>173482526</v>
+        <v>133978151</v>
       </c>
       <c r="G25" s="2">
-        <v>482</v>
+        <v>270</v>
       </c>
       <c r="H25" s="2">
-        <v>742008</v>
+        <v>4728461</v>
       </c>
       <c r="I25" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J25" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L25" s="1">
-        <v>84.7</v>
+        <v>93.6</v>
       </c>
       <c r="M25" s="1">
-        <v>82.8</v>
+        <v>92.8</v>
       </c>
       <c r="N25" s="1">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="O25" s="1">
-        <v>7.3</v>
+        <v>3.9</v>
       </c>
       <c r="P25" s="1">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q25" s="1">
         <v>978</v>
@@ -1843,10 +1829,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -1855,34 +1841,34 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>173502851</v>
+        <v>133958743</v>
       </c>
       <c r="G26" s="2">
-        <v>482</v>
+        <v>266</v>
       </c>
       <c r="H26" s="2">
-        <v>742347</v>
+        <v>4728800</v>
       </c>
       <c r="I26" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J26" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L26" s="1">
-        <v>85.5</v>
+        <v>94.7</v>
       </c>
       <c r="M26" s="1">
-        <v>84</v>
+        <v>94.1</v>
       </c>
       <c r="N26" s="1">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="O26" s="1">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="P26" s="1">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q26" s="1">
         <v>978</v>
@@ -1890,10 +1876,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
         <v>4</v>
@@ -1902,34 +1888,34 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>173495028</v>
+        <v>133935337</v>
       </c>
       <c r="G27" s="2">
-        <v>482</v>
+        <v>265</v>
       </c>
       <c r="H27" s="2">
-        <v>742456</v>
+        <v>4728636</v>
       </c>
       <c r="I27" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J27" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L27" s="1">
-        <v>85</v>
+        <v>94.6</v>
       </c>
       <c r="M27" s="1">
-        <v>83.1</v>
+        <v>93.9</v>
       </c>
       <c r="N27" s="1">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="O27" s="1">
-        <v>7.6</v>
+        <v>3.1</v>
       </c>
       <c r="P27" s="1">
-        <v>7.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q27" s="1">
         <v>978</v>
@@ -1937,10 +1923,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1949,34 +1935,34 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>133964127</v>
+        <v>167961763</v>
       </c>
       <c r="G28" s="2">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="H28" s="2">
-        <v>4727420</v>
+        <v>5216854</v>
       </c>
       <c r="I28" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J28" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L28" s="1">
-        <v>91</v>
+        <v>82.5</v>
       </c>
       <c r="M28" s="1">
-        <v>90.3</v>
+        <v>81</v>
       </c>
       <c r="N28" s="1">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="O28" s="1">
-        <v>5.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="P28" s="1">
-        <v>3.3</v>
+        <v>7.7</v>
       </c>
       <c r="Q28" s="1">
         <v>978</v>
@@ -1984,10 +1970,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -1996,34 +1982,34 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>133978151</v>
+        <v>168109005</v>
       </c>
       <c r="G29" s="2">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="H29" s="2">
-        <v>4728461</v>
+        <v>5220329</v>
       </c>
       <c r="I29" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J29" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L29" s="1">
-        <v>93.6</v>
+        <v>89.1</v>
       </c>
       <c r="M29" s="1">
-        <v>92.8</v>
+        <v>87.8</v>
       </c>
       <c r="N29" s="1">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="O29" s="1">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="P29" s="1">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q29" s="1">
         <v>978</v>
@@ -2031,10 +2017,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
@@ -2043,34 +2029,34 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>133958743</v>
+        <v>168151829</v>
       </c>
       <c r="G30" s="2">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="H30" s="2">
-        <v>4728800</v>
+        <v>5220785</v>
       </c>
       <c r="I30" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J30" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L30" s="1">
-        <v>94.7</v>
+        <v>89.4</v>
       </c>
       <c r="M30" s="1">
-        <v>94.1</v>
+        <v>88</v>
       </c>
       <c r="N30" s="1">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="O30" s="1">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="P30" s="1">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="Q30" s="1">
         <v>978</v>
@@ -2078,10 +2064,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <v>4</v>
@@ -2090,34 +2076,34 @@
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>133935337</v>
+        <v>168169299</v>
       </c>
       <c r="G31" s="2">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="H31" s="2">
-        <v>4728636</v>
+        <v>5221184</v>
       </c>
       <c r="I31" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J31" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L31" s="1">
-        <v>94.6</v>
+        <v>88.7</v>
       </c>
       <c r="M31" s="1">
-        <v>93.9</v>
+        <v>86.9</v>
       </c>
       <c r="N31" s="1">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="O31" s="1">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="P31" s="1">
-        <v>2.2999999999999998</v>
+        <v>5.7</v>
       </c>
       <c r="Q31" s="1">
         <v>978</v>
@@ -2125,10 +2111,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2137,34 +2123,34 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>167961763</v>
+        <v>164506016</v>
       </c>
       <c r="G32" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H32" s="2">
-        <v>5216854</v>
+        <v>3435302</v>
       </c>
       <c r="I32" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="J32" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L32" s="1">
-        <v>82.5</v>
+        <v>80.3</v>
       </c>
       <c r="M32" s="1">
-        <v>81</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="N32" s="1">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="O32" s="1">
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="P32" s="1">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="Q32" s="1">
         <v>978</v>
@@ -2172,10 +2158,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -2184,34 +2170,34 @@
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>168109005</v>
+        <v>164446309</v>
       </c>
       <c r="G33" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H33" s="2">
-        <v>5220329</v>
+        <v>3435426</v>
       </c>
       <c r="I33" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="J33" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L33" s="1">
-        <v>89.1</v>
+        <v>85.1</v>
       </c>
       <c r="M33" s="1">
-        <v>87.8</v>
+        <v>83.2</v>
       </c>
       <c r="N33" s="1">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="O33" s="1">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="P33" s="1">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="Q33" s="1">
         <v>978</v>
@@ -2219,10 +2205,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -2231,34 +2217,34 @@
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>168151829</v>
+        <v>164402138</v>
       </c>
       <c r="G34" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H34" s="2">
-        <v>5220785</v>
+        <v>3435590</v>
       </c>
       <c r="I34" s="2">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="J34" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L34" s="1">
-        <v>89.4</v>
+        <v>84.9</v>
       </c>
       <c r="M34" s="1">
-        <v>88</v>
+        <v>83.3</v>
       </c>
       <c r="N34" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O34" s="1">
-        <v>5.3</v>
+        <v>7.9</v>
       </c>
       <c r="P34" s="1">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="Q34" s="1">
         <v>978</v>
@@ -2266,10 +2252,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -2278,34 +2264,34 @@
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>168169299</v>
+        <v>164356678</v>
       </c>
       <c r="G35" s="2">
-        <v>122</v>
+        <v>414</v>
       </c>
       <c r="H35" s="2">
-        <v>5221184</v>
+        <v>3435582</v>
       </c>
       <c r="I35" s="2">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="J35" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L35" s="1">
-        <v>88.7</v>
+        <v>85.3</v>
       </c>
       <c r="M35" s="1">
-        <v>86.9</v>
+        <v>83.7</v>
       </c>
       <c r="N35" s="1">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O35" s="1">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="P35" s="1">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="Q35" s="1">
         <v>978</v>
@@ -2313,10 +2299,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2325,34 +2311,34 @@
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>164506016</v>
+        <v>159382384</v>
       </c>
       <c r="G36" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H36" s="2">
-        <v>3435302</v>
+        <v>2986395</v>
       </c>
       <c r="I36" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J36" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L36" s="1">
-        <v>80.3</v>
+        <v>84.1</v>
       </c>
       <c r="M36" s="1">
-        <v>79.400000000000006</v>
+        <v>82.8</v>
       </c>
       <c r="N36" s="1">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="O36" s="1">
-        <v>10.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P36" s="1">
-        <v>8.9</v>
+        <v>7.1</v>
       </c>
       <c r="Q36" s="1">
         <v>978</v>
@@ -2360,10 +2346,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
@@ -2372,34 +2358,34 @@
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>164446309</v>
+        <v>159345477</v>
       </c>
       <c r="G37" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H37" s="2">
-        <v>3435426</v>
+        <v>2986714</v>
       </c>
       <c r="I37" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J37" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" s="1">
-        <v>85.1</v>
+        <v>87.7</v>
       </c>
       <c r="M37" s="1">
-        <v>83.2</v>
+        <v>86.3</v>
       </c>
       <c r="N37" s="1">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="O37" s="1">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="P37" s="1">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="Q37" s="1">
         <v>978</v>
@@ -2407,10 +2393,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -2419,34 +2405,34 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>164402138</v>
+        <v>159312422</v>
       </c>
       <c r="G38" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H38" s="2">
-        <v>3435590</v>
+        <v>2986724</v>
       </c>
       <c r="I38" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J38" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L38" s="1">
-        <v>84.9</v>
+        <v>88.9</v>
       </c>
       <c r="M38" s="1">
-        <v>83.3</v>
+        <v>88</v>
       </c>
       <c r="N38" s="1">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="O38" s="1">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="P38" s="1">
-        <v>7.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q38" s="1">
         <v>978</v>
@@ -2454,10 +2440,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
@@ -2466,34 +2452,34 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>164356678</v>
+        <v>159275827</v>
       </c>
       <c r="G39" s="2">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="H39" s="2">
-        <v>3435582</v>
+        <v>2986759</v>
       </c>
       <c r="I39" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J39" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L39" s="1">
-        <v>85.3</v>
+        <v>88.8</v>
       </c>
       <c r="M39" s="1">
-        <v>83.7</v>
+        <v>87.5</v>
       </c>
       <c r="N39" s="1">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="O39" s="1">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="P39" s="1">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="Q39" s="1">
         <v>978</v>
@@ -2501,10 +2487,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -2513,34 +2499,34 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>159382384</v>
+        <v>137738422</v>
       </c>
       <c r="G40" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H40" s="2">
-        <v>2986395</v>
+        <v>7677148</v>
       </c>
       <c r="I40" s="2">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="J40" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L40" s="1">
-        <v>84.1</v>
+        <v>91.3</v>
       </c>
       <c r="M40" s="1">
-        <v>82.8</v>
+        <v>90.2</v>
       </c>
       <c r="N40" s="1">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O40" s="1">
-        <v>8.8000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P40" s="1">
-        <v>7.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q40" s="1">
         <v>978</v>
@@ -2548,10 +2534,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -2560,34 +2546,34 @@
         <v>0</v>
       </c>
       <c r="F41" s="2">
-        <v>159345477</v>
+        <v>137820204</v>
       </c>
       <c r="G41" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H41" s="2">
-        <v>2986714</v>
+        <v>7682210</v>
       </c>
       <c r="I41" s="2">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="J41" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L41" s="1">
-        <v>87.7</v>
+        <v>92.8</v>
       </c>
       <c r="M41" s="1">
-        <v>86.3</v>
+        <v>91.9</v>
       </c>
       <c r="N41" s="1">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="O41" s="1">
-        <v>6.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P41" s="1">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q41" s="1">
         <v>978</v>
@@ -2595,10 +2581,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
@@ -2607,34 +2593,34 @@
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>159312422</v>
+        <v>137841702</v>
       </c>
       <c r="G42" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H42" s="2">
-        <v>2986724</v>
+        <v>7683309</v>
       </c>
       <c r="I42" s="2">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="J42" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L42" s="1">
-        <v>88.9</v>
+        <v>93.1</v>
       </c>
       <c r="M42" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N42" s="1">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O42" s="1">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P42" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="Q42" s="1">
         <v>978</v>
@@ -2642,10 +2628,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1">
         <v>4</v>
@@ -2654,34 +2640,34 @@
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>159275827</v>
+        <v>137851511</v>
       </c>
       <c r="G43" s="2">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="H43" s="2">
-        <v>2986759</v>
+        <v>7684305</v>
       </c>
       <c r="I43" s="2">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="J43" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L43" s="1">
-        <v>88.8</v>
+        <v>92.1</v>
       </c>
       <c r="M43" s="1">
-        <v>87.5</v>
+        <v>91.2</v>
       </c>
       <c r="N43" s="1">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="O43" s="1">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="P43" s="1">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q43" s="1">
         <v>978</v>
@@ -2689,10 +2675,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -2701,34 +2687,34 @@
         <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>137738422</v>
+        <v>133602479</v>
       </c>
       <c r="G44" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H44" s="2">
-        <v>7677148</v>
+        <v>7750648</v>
       </c>
       <c r="I44" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J44" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L44" s="1">
         <v>91.3</v>
       </c>
       <c r="M44" s="1">
-        <v>90.2</v>
+        <v>90</v>
       </c>
       <c r="N44" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="O44" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="P44" s="1">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" s="1">
         <v>978</v>
@@ -2736,10 +2722,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
@@ -2748,34 +2734,34 @@
         <v>0</v>
       </c>
       <c r="F45" s="2">
-        <v>137820204</v>
+        <v>133633664</v>
       </c>
       <c r="G45" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H45" s="2">
-        <v>7682210</v>
+        <v>7751127</v>
       </c>
       <c r="I45" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J45" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L45" s="1">
-        <v>92.8</v>
+        <v>94.2</v>
       </c>
       <c r="M45" s="1">
-        <v>91.9</v>
+        <v>92.9</v>
       </c>
       <c r="N45" s="1">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="O45" s="1">
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="P45" s="1">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q45" s="1">
         <v>978</v>
@@ -2783,10 +2769,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
@@ -2795,34 +2781,34 @@
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>137841702</v>
+        <v>133646976</v>
       </c>
       <c r="G46" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H46" s="2">
-        <v>7683309</v>
+        <v>7751528</v>
       </c>
       <c r="I46" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J46" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L46" s="1">
-        <v>93.1</v>
+        <v>95.3</v>
       </c>
       <c r="M46" s="1">
-        <v>92</v>
+        <v>94.1</v>
       </c>
       <c r="N46" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O46" s="1">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="P46" s="1">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q46" s="1">
         <v>978</v>
@@ -2830,10 +2816,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1">
         <v>4</v>
@@ -2842,34 +2828,34 @@
         <v>0</v>
       </c>
       <c r="F47" s="2">
-        <v>137851511</v>
+        <v>133655430</v>
       </c>
       <c r="G47" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="H47" s="2">
-        <v>7684305</v>
+        <v>7751426</v>
       </c>
       <c r="I47" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J47" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L47" s="1">
-        <v>92.1</v>
+        <v>95.6</v>
       </c>
       <c r="M47" s="1">
-        <v>91.2</v>
+        <v>94.5</v>
       </c>
       <c r="N47" s="1">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O47" s="1">
-        <v>4.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P47" s="1">
-        <v>3.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q47" s="1">
         <v>978</v>
@@ -2877,10 +2863,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -2889,34 +2875,34 @@
         <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>133602479</v>
+        <v>169341059</v>
       </c>
       <c r="G48" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H48" s="2">
-        <v>7750648</v>
+        <v>4156756</v>
       </c>
       <c r="I48" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J48" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L48" s="1">
-        <v>91.3</v>
+        <v>84.9</v>
       </c>
       <c r="M48" s="1">
-        <v>90</v>
+        <v>84.2</v>
       </c>
       <c r="N48" s="1">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="O48" s="1">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="P48" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q48" s="1">
         <v>978</v>
@@ -2924,10 +2910,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
@@ -2936,34 +2922,34 @@
         <v>0</v>
       </c>
       <c r="F49" s="2">
-        <v>133633664</v>
+        <v>169430415</v>
       </c>
       <c r="G49" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H49" s="2">
-        <v>7751127</v>
+        <v>4158819</v>
       </c>
       <c r="I49" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J49" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L49" s="1">
-        <v>94.2</v>
+        <v>87.5</v>
       </c>
       <c r="M49" s="1">
-        <v>92.9</v>
+        <v>86.5</v>
       </c>
       <c r="N49" s="1">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="O49" s="1">
-        <v>3.1</v>
+        <v>7.1</v>
       </c>
       <c r="P49" s="1">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="Q49" s="1">
         <v>978</v>
@@ -2971,10 +2957,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1">
         <v>3</v>
@@ -2983,34 +2969,34 @@
         <v>0</v>
       </c>
       <c r="F50" s="2">
-        <v>133646976</v>
+        <v>169449856</v>
       </c>
       <c r="G50" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H50" s="2">
-        <v>7751528</v>
+        <v>4159224</v>
       </c>
       <c r="I50" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J50" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L50" s="1">
-        <v>95.3</v>
+        <v>89.5</v>
       </c>
       <c r="M50" s="1">
-        <v>94.1</v>
+        <v>88.2</v>
       </c>
       <c r="N50" s="1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="O50" s="1">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="P50" s="1">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q50" s="1">
         <v>978</v>
@@ -3018,10 +3004,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1">
         <v>4</v>
@@ -3030,34 +3016,34 @@
         <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>133655430</v>
+        <v>169448282</v>
       </c>
       <c r="G51" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H51" s="2">
-        <v>7751426</v>
+        <v>4159275</v>
       </c>
       <c r="I51" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J51" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L51" s="1">
-        <v>95.6</v>
+        <v>89.3</v>
       </c>
       <c r="M51" s="1">
-        <v>94.5</v>
+        <v>88.1</v>
       </c>
       <c r="N51" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O51" s="1">
-        <v>2.2000000000000002</v>
+        <v>5.5</v>
       </c>
       <c r="P51" s="1">
-        <v>2.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="Q51" s="1">
         <v>978</v>
@@ -3065,10 +3051,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -3077,34 +3063,34 @@
         <v>0</v>
       </c>
       <c r="F52" s="2">
-        <v>169341059</v>
+        <v>196059495</v>
       </c>
       <c r="G52" s="2">
-        <v>141</v>
+        <v>490</v>
       </c>
       <c r="H52" s="2">
-        <v>4156756</v>
+        <v>1524869</v>
       </c>
       <c r="I52" s="2">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="J52" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L52" s="1">
-        <v>84.9</v>
+        <v>79.7</v>
       </c>
       <c r="M52" s="1">
-        <v>84.2</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="N52" s="1">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="O52" s="1">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="P52" s="1">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="Q52" s="1">
         <v>978</v>
@@ -3112,10 +3098,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
@@ -3124,34 +3110,34 @@
         <v>0</v>
       </c>
       <c r="F53" s="2">
-        <v>169430415</v>
+        <v>196100155</v>
       </c>
       <c r="G53" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H53" s="2">
-        <v>4158819</v>
+        <v>1524350</v>
       </c>
       <c r="I53" s="2">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="J53" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L53" s="1">
-        <v>87.5</v>
+        <v>84.4</v>
       </c>
       <c r="M53" s="1">
-        <v>86.5</v>
+        <v>82.9</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O53" s="1">
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
       <c r="P53" s="1">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="Q53" s="1">
         <v>978</v>
@@ -3159,10 +3145,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
         <v>3</v>
@@ -3171,34 +3157,34 @@
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <v>169449856</v>
+        <v>196103532</v>
       </c>
       <c r="G54" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H54" s="2">
-        <v>4159224</v>
+        <v>1523838</v>
       </c>
       <c r="I54" s="2">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="J54" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L54" s="1">
-        <v>89.5</v>
+        <v>84.5</v>
       </c>
       <c r="M54" s="1">
-        <v>88.2</v>
+        <v>83.3</v>
       </c>
       <c r="N54" s="1">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="O54" s="1">
-        <v>5.3</v>
+        <v>9.5</v>
       </c>
       <c r="P54" s="1">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="Q54" s="1">
         <v>978</v>
@@ -3206,10 +3192,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1">
         <v>4</v>
@@ -3218,34 +3204,34 @@
         <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>169448282</v>
+        <v>196094697</v>
       </c>
       <c r="G55" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H55" s="2">
-        <v>4159275</v>
+        <v>1523992</v>
       </c>
       <c r="I55" s="2">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="J55" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L55" s="1">
-        <v>89.3</v>
+        <v>82.8</v>
       </c>
       <c r="M55" s="1">
-        <v>88.1</v>
+        <v>81.7</v>
       </c>
       <c r="N55" s="1">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O55" s="1">
-        <v>5.5</v>
+        <v>10.1</v>
       </c>
       <c r="P55" s="1">
-        <v>5.2</v>
+        <v>7.1</v>
       </c>
       <c r="Q55" s="1">
         <v>978</v>
@@ -3253,10 +3239,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -3265,34 +3251,34 @@
         <v>0</v>
       </c>
       <c r="F56" s="2">
-        <v>196059495</v>
+        <v>143021842</v>
       </c>
       <c r="G56" s="2">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="H56" s="2">
-        <v>1524869</v>
+        <v>5218344</v>
       </c>
       <c r="I56" s="2">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="J56" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L56" s="1">
-        <v>79.7</v>
+        <v>86.7</v>
       </c>
       <c r="M56" s="1">
-        <v>78.400000000000006</v>
+        <v>86.2</v>
       </c>
       <c r="N56" s="1">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="O56" s="1">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="P56" s="1">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="Q56" s="1">
         <v>978</v>
@@ -3300,10 +3286,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
@@ -3312,34 +3298,34 @@
         <v>0</v>
       </c>
       <c r="F57" s="2">
-        <v>196100155</v>
+        <v>143070667</v>
       </c>
       <c r="G57" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H57" s="2">
-        <v>1524350</v>
+        <v>5219333</v>
       </c>
       <c r="I57" s="2">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c r="J57" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L57" s="1">
-        <v>84.4</v>
+        <v>90.2</v>
       </c>
       <c r="M57" s="1">
-        <v>82.9</v>
+        <v>89.7</v>
       </c>
       <c r="N57" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="O57" s="1">
-        <v>9.6</v>
+        <v>6.2</v>
       </c>
       <c r="P57" s="1">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q57" s="1">
         <v>978</v>
@@ -3347,10 +3333,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1">
         <v>3</v>
@@ -3359,34 +3345,34 @@
         <v>0</v>
       </c>
       <c r="F58" s="2">
-        <v>196103532</v>
+        <v>143092062</v>
       </c>
       <c r="G58" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H58" s="2">
-        <v>1523838</v>
+        <v>5220030</v>
       </c>
       <c r="I58" s="2">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c r="J58" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L58" s="1">
-        <v>84.5</v>
+        <v>90.8</v>
       </c>
       <c r="M58" s="1">
-        <v>83.3</v>
+        <v>90</v>
       </c>
       <c r="N58" s="1">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="O58" s="1">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="P58" s="1">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q58" s="1">
         <v>978</v>
@@ -3394,10 +3380,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C59" s="1">
         <v>4</v>
@@ -3406,279 +3392,103 @@
         <v>0</v>
       </c>
       <c r="F59" s="2">
-        <v>196094697</v>
+        <v>143102601</v>
       </c>
       <c r="G59" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H59" s="2">
-        <v>1523992</v>
+        <v>5220296</v>
       </c>
       <c r="I59" s="2">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="J59" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L59" s="1">
-        <v>82.8</v>
+        <v>91.2</v>
       </c>
       <c r="M59" s="1">
-        <v>81.7</v>
+        <v>90.7</v>
       </c>
       <c r="N59" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O59" s="1">
-        <v>10.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P59" s="1">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="Q59" s="1">
         <v>978</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2">
-        <v>143021842</v>
-      </c>
-      <c r="G60" s="2">
-        <v>111</v>
-      </c>
-      <c r="H60" s="2">
-        <v>5218344</v>
-      </c>
-      <c r="I60" s="2">
-        <v>68</v>
-      </c>
-      <c r="J60" s="2">
-        <v>34</v>
-      </c>
-      <c r="L60" s="1">
-        <v>86.7</v>
-      </c>
-      <c r="M60" s="1">
-        <v>86.2</v>
-      </c>
-      <c r="N60" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O60" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="P60" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>978</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>143070667</v>
-      </c>
-      <c r="G61" s="2">
-        <v>111</v>
-      </c>
-      <c r="H61" s="2">
-        <v>5219333</v>
-      </c>
-      <c r="I61" s="2">
-        <v>68</v>
-      </c>
-      <c r="J61" s="2">
-        <v>34</v>
-      </c>
-      <c r="L61" s="1">
-        <v>90.2</v>
-      </c>
-      <c r="M61" s="1">
-        <v>89.7</v>
-      </c>
-      <c r="N61" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O61" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="P61" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>978</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="1">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2">
-        <v>143092062</v>
-      </c>
-      <c r="G62" s="2">
-        <v>111</v>
-      </c>
-      <c r="H62" s="2">
-        <v>5220030</v>
-      </c>
-      <c r="I62" s="2">
-        <v>68</v>
-      </c>
-      <c r="J62" s="2">
-        <v>34</v>
-      </c>
-      <c r="L62" s="1">
-        <v>90.8</v>
-      </c>
-      <c r="M62" s="1">
-        <v>90</v>
-      </c>
-      <c r="N62" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O62" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="P62" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>978</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1">
-        <v>4</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>143102601</v>
-      </c>
-      <c r="G63" s="2">
-        <v>111</v>
-      </c>
-      <c r="H63" s="2">
-        <v>5220296</v>
-      </c>
-      <c r="I63" s="2">
-        <v>68</v>
-      </c>
-      <c r="J63" s="2">
-        <v>34</v>
-      </c>
-      <c r="L63" s="1">
-        <v>91.2</v>
-      </c>
-      <c r="M63" s="1">
-        <v>90.7</v>
-      </c>
-      <c r="N63" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O63" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P63" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>978</v>
-      </c>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
@@ -3771,32 +3581,20 @@
     <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="330" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A330"/>
-      <c r="B330"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
-      <c r="E330"/>
-      <c r="F330" s="1"/>
-      <c r="K330"/>
-      <c r="L330" s="1"/>
-      <c r="M330" s="1"/>
-      <c r="N330" s="1"/>
-      <c r="O330" s="1"/>
-      <c r="P330" s="1"/>
-      <c r="Q330" s="1"/>
+    <row r="326" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326"/>
+      <c r="B326"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326"/>
+      <c r="F326" s="1"/>
+      <c r="K326"/>
+      <c r="L326" s="1"/>
+      <c r="M326" s="1"/>
+      <c r="N326" s="1"/>
+      <c r="O326" s="1"/>
+      <c r="P326" s="1"/>
+      <c r="Q326" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
